--- a/opman/reports/BSVRECIPT.xlsx
+++ b/opman/reports/BSVRECIPT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19fd37acce0ff910/Python Scripts/OperationsManagement/opman/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juntr\PycharmProjects\om\opman\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D1DBD3-2351-497C-9F20-11FAAF77D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D6E9D48-535D-4928-A76C-887EDAF52AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AB68569E-6AB7-461B-8679-F8566D60BF03}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2FE61B76-9F6C-4318-8CBA-ED2AB90E4AFA}"/>
   </bookViews>
   <sheets>
     <sheet name="total received today" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="609">
   <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>PD0207</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>0.80±0.10mm*120cm</t>
@@ -2023,7 +2023,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B8057512-1C3F-4C7F-AE77-2AAA3244BEE0}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{14EC7EB6-365C-448A-BC79-19344D627DC3}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2335,11 +2335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E4B0DA-CEDF-4D72-A76C-A2769B5E59CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE915C9-84AE-4FDF-85AD-D363D8A46CF7}">
   <dimension ref="A1:CG58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -2674,13 +2674,13 @@
         <v>-17</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R2" s="21">
         <v>5.01</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="21" t="s">
         <v>527</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>35</v>
@@ -2712,7 +2712,7 @@
         <v>525</v>
       </c>
       <c r="AE2" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF2" s="21" t="s">
         <v>524</v>
@@ -2746,14 +2746,14 @@
       </c>
       <c r="AV2" s="22"/>
       <c r="AW2" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" s="22"/>
       <c r="AY2" s="21">
         <v>17</v>
       </c>
       <c r="AZ2" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" s="22"/>
       <c r="BB2" s="22"/>
@@ -2770,10 +2770,10 @@
       </c>
       <c r="BJ2" s="22"/>
       <c r="BK2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="21" t="s">
         <v>5</v>
-      </c>
-      <c r="BL2" s="21" t="s">
-        <v>4</v>
       </c>
       <c r="BM2" s="22"/>
       <c r="BN2" s="22"/>
@@ -2784,7 +2784,7 @@
       <c r="BQ2" s="22"/>
       <c r="BR2" s="22"/>
       <c r="BS2" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT2" s="21">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>-2</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R3" s="17">
         <v>6.93</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>519</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X3" s="17" t="s">
         <v>35</v>
@@ -2909,7 +2909,7 @@
         <v>516</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF3" s="17" t="s">
         <v>517</v>
@@ -2933,13 +2933,13 @@
         <v>33</v>
       </c>
       <c r="AW3" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY3" s="17">
         <v>2</v>
       </c>
       <c r="AZ3" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH3" s="18">
         <v>44378.417210648149</v>
@@ -2951,16 +2951,16 @@
         <v>516</v>
       </c>
       <c r="BK3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BL3" s="17" t="s">
+      <c r="BP3" s="17">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="BP3" s="17">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="17" t="s">
-        <v>3</v>
       </c>
       <c r="BT3" s="17">
         <v>0</v>
@@ -3052,19 +3052,19 @@
         <v>-1</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R4" s="17">
         <v>6.93</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>509</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>35</v>
@@ -3085,7 +3085,7 @@
         <v>504</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF4" s="17" t="s">
         <v>506</v>
@@ -3109,13 +3109,13 @@
         <v>33</v>
       </c>
       <c r="AW4" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY4" s="17">
         <v>1</v>
       </c>
       <c r="AZ4" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH4" s="18">
         <v>44378.418703703705</v>
@@ -3127,16 +3127,16 @@
         <v>504</v>
       </c>
       <c r="BK4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BL4" s="17" t="s">
+      <c r="BP4" s="17">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="BP4" s="17">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="17" t="s">
-        <v>3</v>
       </c>
       <c r="BT4" s="17">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>-34</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R5" s="9">
         <v>6.92</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>498</v>
@@ -3243,7 +3243,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>35</v>
@@ -3265,7 +3265,7 @@
         <v>498</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>499</v>
@@ -3301,14 +3301,14 @@
       </c>
       <c r="AV5" s="10"/>
       <c r="AW5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX5" s="10"/>
       <c r="AY5" s="9">
         <v>34</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA5" s="10"/>
       <c r="BB5" s="10"/>
@@ -3327,10 +3327,10 @@
         <v>498</v>
       </c>
       <c r="BK5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL5" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL5" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM5" s="10"/>
       <c r="BN5" s="10"/>
@@ -3341,7 +3341,7 @@
       <c r="BQ5" s="10"/>
       <c r="BR5" s="10"/>
       <c r="BS5" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT5" s="9">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>34</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R6" s="9">
         <v>6.92</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>495</v>
@@ -3441,7 +3441,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
       <c r="W6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>35</v>
@@ -3463,7 +3463,7 @@
         <v>495</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>496</v>
@@ -3501,14 +3501,14 @@
       </c>
       <c r="AV6" s="10"/>
       <c r="AW6" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX6" s="10"/>
       <c r="AY6" s="9">
         <v>34</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" s="10"/>
       <c r="BB6" s="10"/>
@@ -3527,10 +3527,10 @@
         <v>495</v>
       </c>
       <c r="BK6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL6" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL6" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM6" s="10"/>
       <c r="BN6" s="10"/>
@@ -3541,7 +3541,7 @@
       <c r="BQ6" s="10"/>
       <c r="BR6" s="10"/>
       <c r="BS6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT6" s="9">
         <v>0</v>
@@ -3625,13 +3625,13 @@
         <v>-43</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R7" s="9">
         <v>6.92</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>493</v>
@@ -3639,7 +3639,7 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>35</v>
@@ -3661,7 +3661,7 @@
         <v>493</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF7" s="9" t="s">
         <v>494</v>
@@ -3697,14 +3697,14 @@
       </c>
       <c r="AV7" s="10"/>
       <c r="AW7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX7" s="10"/>
       <c r="AY7" s="9">
         <v>43</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA7" s="10"/>
       <c r="BB7" s="10"/>
@@ -3723,10 +3723,10 @@
         <v>493</v>
       </c>
       <c r="BK7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL7" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL7" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM7" s="10"/>
       <c r="BN7" s="10"/>
@@ -3737,7 +3737,7 @@
       <c r="BQ7" s="10"/>
       <c r="BR7" s="10"/>
       <c r="BS7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT7" s="9">
         <v>0</v>
@@ -3823,13 +3823,13 @@
         <v>43</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R8" s="9">
         <v>6.92</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>480</v>
@@ -3837,7 +3837,7 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>35</v>
@@ -3859,7 +3859,7 @@
         <v>480</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>483</v>
@@ -3897,14 +3897,14 @@
       </c>
       <c r="AV8" s="10"/>
       <c r="AW8" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX8" s="10"/>
       <c r="AY8" s="9">
         <v>43</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA8" s="10"/>
       <c r="BB8" s="10"/>
@@ -3923,10 +3923,10 @@
         <v>480</v>
       </c>
       <c r="BK8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL8" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL8" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM8" s="10"/>
       <c r="BN8" s="10"/>
@@ -3937,7 +3937,7 @@
       <c r="BQ8" s="10"/>
       <c r="BR8" s="10"/>
       <c r="BS8" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT8" s="9">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>-26</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R9" s="9">
         <v>5.01</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>478</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>35</v>
@@ -4059,7 +4059,7 @@
         <v>468</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF9" s="9" t="s">
         <v>477</v>
@@ -4093,14 +4093,14 @@
       </c>
       <c r="AV9" s="10"/>
       <c r="AW9" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX9" s="10"/>
       <c r="AY9" s="9">
         <v>26</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA9" s="10"/>
       <c r="BB9" s="10"/>
@@ -4117,10 +4117,10 @@
       </c>
       <c r="BJ9" s="10"/>
       <c r="BK9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL9" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL9" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM9" s="10"/>
       <c r="BN9" s="10"/>
@@ -4131,7 +4131,7 @@
       <c r="BQ9" s="10"/>
       <c r="BR9" s="10"/>
       <c r="BS9" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT9" s="9">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>16</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R10" s="9">
         <v>5.01</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>472</v>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>35</v>
@@ -4253,7 +4253,7 @@
         <v>468</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF10" s="9" t="s">
         <v>467</v>
@@ -4287,14 +4287,14 @@
       </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX10" s="10"/>
       <c r="AY10" s="9">
         <v>16</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA10" s="10"/>
       <c r="BB10" s="10"/>
@@ -4311,10 +4311,10 @@
       </c>
       <c r="BJ10" s="10"/>
       <c r="BK10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL10" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL10" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM10" s="10"/>
       <c r="BN10" s="10"/>
@@ -4325,7 +4325,7 @@
       <c r="BQ10" s="10"/>
       <c r="BR10" s="10"/>
       <c r="BS10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT10" s="9">
         <v>0</v>
@@ -4408,13 +4408,13 @@
         <v>-19</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R11" s="8">
         <v>10.8</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>462</v>
@@ -4423,7 +4423,7 @@
         <v>452</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>35</v>
@@ -4444,7 +4444,7 @@
         <v>449</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF11" s="8" t="s">
         <v>460</v>
@@ -4468,13 +4468,13 @@
         <v>33</v>
       </c>
       <c r="AW11" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY11" s="8">
         <v>19</v>
       </c>
       <c r="AZ11" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH11" s="14">
         <v>44408.581608796296</v>
@@ -4483,16 +4483,16 @@
         <v>44408.62940972222</v>
       </c>
       <c r="BK11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="BL11" s="8" t="s">
+      <c r="BP11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="BP11" s="8">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="BT11" s="8">
         <v>0</v>
@@ -4576,13 +4576,13 @@
         <v>15</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <v>10.8</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>453</v>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>35</v>
@@ -4614,7 +4614,7 @@
         <v>449</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF12" s="9" t="s">
         <v>448</v>
@@ -4648,14 +4648,14 @@
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX12" s="10"/>
       <c r="AY12" s="9">
         <v>15</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA12" s="10"/>
       <c r="BB12" s="10"/>
@@ -4672,10 +4672,10 @@
       </c>
       <c r="BJ12" s="10"/>
       <c r="BK12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL12" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL12" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM12" s="10"/>
       <c r="BN12" s="10"/>
@@ -4686,7 +4686,7 @@
       <c r="BQ12" s="10"/>
       <c r="BR12" s="10"/>
       <c r="BS12" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT12" s="9">
         <v>0</v>
@@ -4770,13 +4770,13 @@
         <v>-2</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <v>6.92</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T13" s="9" t="s">
         <v>430</v>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>35</v>
@@ -4808,7 +4808,7 @@
         <v>433</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>432</v>
@@ -4842,14 +4842,14 @@
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX13" s="10"/>
       <c r="AY13" s="9">
         <v>2</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA13" s="10"/>
       <c r="BB13" s="10"/>
@@ -4868,10 +4868,10 @@
         <v>430</v>
       </c>
       <c r="BK13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL13" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL13" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM13" s="10"/>
       <c r="BN13" s="10"/>
@@ -4882,7 +4882,7 @@
       <c r="BQ13" s="10"/>
       <c r="BR13" s="10"/>
       <c r="BS13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT13" s="9">
         <v>0</v>
@@ -4968,13 +4968,13 @@
         <v>2</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R14" s="9">
         <v>6.92</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>430</v>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="V14" s="10"/>
       <c r="W14" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>35</v>
@@ -5006,7 +5006,7 @@
         <v>433</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF14" s="9" t="s">
         <v>432</v>
@@ -5042,14 +5042,14 @@
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX14" s="10"/>
       <c r="AY14" s="9">
         <v>2</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
@@ -5068,10 +5068,10 @@
         <v>430</v>
       </c>
       <c r="BK14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL14" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="BL14" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="BM14" s="10"/>
       <c r="BN14" s="10"/>
@@ -5082,7 +5082,7 @@
       <c r="BQ14" s="10"/>
       <c r="BR14" s="10"/>
       <c r="BS14" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT14" s="9">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>20</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>4.71</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>424</v>
@@ -5182,7 +5182,7 @@
         <v>354</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>419</v>
@@ -5204,7 +5204,7 @@
         <v>421</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>420</v>
@@ -5238,14 +5238,14 @@
       </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="3">
         <v>20</v>
       </c>
       <c r="AZ15" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
@@ -5262,10 +5262,10 @@
       </c>
       <c r="BJ15" s="4"/>
       <c r="BK15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL15" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL15" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM15" s="4"/>
       <c r="BN15" s="4"/>
@@ -5276,7 +5276,7 @@
       <c r="BQ15" s="4"/>
       <c r="BR15" s="4"/>
       <c r="BS15" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT15" s="3">
         <v>0</v>
@@ -5360,13 +5360,13 @@
         <v>6</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R16" s="3">
         <v>4.2300000000000004</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>412</v>
@@ -5376,7 +5376,7 @@
         <v>354</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>35</v>
@@ -5398,7 +5398,7 @@
         <v>409</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF16" s="3" t="s">
         <v>408</v>
@@ -5432,14 +5432,14 @@
       </c>
       <c r="AV16" s="4"/>
       <c r="AW16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="3">
         <v>6</v>
       </c>
       <c r="AZ16" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
@@ -5456,10 +5456,10 @@
       </c>
       <c r="BJ16" s="4"/>
       <c r="BK16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL16" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL16" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM16" s="4"/>
       <c r="BN16" s="4"/>
@@ -5470,7 +5470,7 @@
       <c r="BQ16" s="4"/>
       <c r="BR16" s="4"/>
       <c r="BS16" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT16" s="3">
         <v>0</v>
@@ -5554,13 +5554,13 @@
         <v>5</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>4.2300000000000004</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>403</v>
@@ -5570,7 +5570,7 @@
         <v>354</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>35</v>
@@ -5592,7 +5592,7 @@
         <v>400</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>399</v>
@@ -5626,14 +5626,14 @@
       </c>
       <c r="AV17" s="4"/>
       <c r="AW17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX17" s="4"/>
       <c r="AY17" s="3">
         <v>5</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
@@ -5650,10 +5650,10 @@
       </c>
       <c r="BJ17" s="4"/>
       <c r="BK17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL17" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL17" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM17" s="4"/>
       <c r="BN17" s="4"/>
@@ -5664,7 +5664,7 @@
       <c r="BQ17" s="4"/>
       <c r="BR17" s="4"/>
       <c r="BS17" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT17" s="3">
         <v>0</v>
@@ -5748,13 +5748,13 @@
         <v>1</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>2.98</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>389</v>
@@ -5764,7 +5764,7 @@
         <v>354</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>35</v>
@@ -5786,7 +5786,7 @@
         <v>394</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>393</v>
@@ -5820,14 +5820,14 @@
       </c>
       <c r="AV18" s="4"/>
       <c r="AW18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX18" s="4"/>
       <c r="AY18" s="3">
         <v>1</v>
       </c>
       <c r="AZ18" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
@@ -5844,10 +5844,10 @@
       </c>
       <c r="BJ18" s="4"/>
       <c r="BK18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL18" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL18" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM18" s="4"/>
       <c r="BN18" s="4"/>
@@ -5858,7 +5858,7 @@
       <c r="BQ18" s="4"/>
       <c r="BR18" s="4"/>
       <c r="BS18" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT18" s="3">
         <v>0</v>
@@ -5942,13 +5942,13 @@
         <v>1</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
         <v>2.98</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>389</v>
@@ -5958,7 +5958,7 @@
         <v>354</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X19" s="3" t="s">
         <v>35</v>
@@ -5980,7 +5980,7 @@
         <v>386</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF19" s="3" t="s">
         <v>385</v>
@@ -6014,14 +6014,14 @@
       </c>
       <c r="AV19" s="4"/>
       <c r="AW19" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX19" s="4"/>
       <c r="AY19" s="3">
         <v>1</v>
       </c>
       <c r="AZ19" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
@@ -6038,10 +6038,10 @@
       </c>
       <c r="BJ19" s="4"/>
       <c r="BK19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL19" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL19" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM19" s="4"/>
       <c r="BN19" s="4"/>
@@ -6052,7 +6052,7 @@
       <c r="BQ19" s="4"/>
       <c r="BR19" s="4"/>
       <c r="BS19" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT19" s="3">
         <v>0</v>
@@ -6136,13 +6136,13 @@
         <v>6</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>4.2300000000000004</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>379</v>
@@ -6152,7 +6152,7 @@
         <v>354</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>35</v>
@@ -6174,7 +6174,7 @@
         <v>376</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF20" s="3" t="s">
         <v>375</v>
@@ -6208,14 +6208,14 @@
       </c>
       <c r="AV20" s="4"/>
       <c r="AW20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX20" s="4"/>
       <c r="AY20" s="3">
         <v>6</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA20" s="4"/>
       <c r="BB20" s="4"/>
@@ -6232,10 +6232,10 @@
       </c>
       <c r="BJ20" s="4"/>
       <c r="BK20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL20" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL20" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM20" s="4"/>
       <c r="BN20" s="4"/>
@@ -6246,7 +6246,7 @@
       <c r="BQ20" s="4"/>
       <c r="BR20" s="4"/>
       <c r="BS20" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT20" s="3">
         <v>0</v>
@@ -6330,13 +6330,13 @@
         <v>6</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>4.2300000000000004</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>370</v>
@@ -6346,7 +6346,7 @@
         <v>354</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>35</v>
@@ -6368,7 +6368,7 @@
         <v>367</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF21" s="3" t="s">
         <v>366</v>
@@ -6402,14 +6402,14 @@
       </c>
       <c r="AV21" s="4"/>
       <c r="AW21" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX21" s="4"/>
       <c r="AY21" s="3">
         <v>6</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA21" s="4"/>
       <c r="BB21" s="4"/>
@@ -6426,10 +6426,10 @@
       </c>
       <c r="BJ21" s="4"/>
       <c r="BK21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL21" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM21" s="4"/>
       <c r="BN21" s="4"/>
@@ -6440,7 +6440,7 @@
       <c r="BQ21" s="4"/>
       <c r="BR21" s="4"/>
       <c r="BS21" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT21" s="3">
         <v>0</v>
@@ -6524,13 +6524,13 @@
         <v>1</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>4.2300000000000004</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>355</v>
@@ -6540,7 +6540,7 @@
         <v>354</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>35</v>
@@ -6562,7 +6562,7 @@
         <v>351</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF22" s="3" t="s">
         <v>350</v>
@@ -6596,14 +6596,14 @@
       </c>
       <c r="AV22" s="4"/>
       <c r="AW22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX22" s="4"/>
       <c r="AY22" s="3">
         <v>1</v>
       </c>
       <c r="AZ22" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA22" s="4"/>
       <c r="BB22" s="4"/>
@@ -6620,10 +6620,10 @@
       </c>
       <c r="BJ22" s="4"/>
       <c r="BK22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL22" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL22" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
@@ -6634,7 +6634,7 @@
       <c r="BQ22" s="4"/>
       <c r="BR22" s="4"/>
       <c r="BS22" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT22" s="3">
         <v>0</v>
@@ -6718,13 +6718,13 @@
         <v>6</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>23.92</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>339</v>
@@ -6732,7 +6732,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>35</v>
@@ -6754,7 +6754,7 @@
         <v>337</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF23" s="3" t="s">
         <v>336</v>
@@ -6788,14 +6788,14 @@
       </c>
       <c r="AV23" s="4"/>
       <c r="AW23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX23" s="4"/>
       <c r="AY23" s="3">
         <v>6</v>
       </c>
       <c r="AZ23" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA23" s="4"/>
       <c r="BB23" s="4"/>
@@ -6812,10 +6812,10 @@
       </c>
       <c r="BJ23" s="4"/>
       <c r="BK23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL23" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL23" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM23" s="4"/>
       <c r="BN23" s="4"/>
@@ -6826,7 +6826,7 @@
       <c r="BQ23" s="4"/>
       <c r="BR23" s="4"/>
       <c r="BS23" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT23" s="3">
         <v>0</v>
@@ -6910,13 +6910,13 @@
         <v>4</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>6.21</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>316</v>
@@ -6928,7 +6928,7 @@
         <v>314</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>35</v>
@@ -6950,7 +6950,7 @@
         <v>310</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF24" s="3" t="s">
         <v>329</v>
@@ -6986,14 +6986,14 @@
       </c>
       <c r="AV24" s="4"/>
       <c r="AW24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX24" s="4"/>
       <c r="AY24" s="3">
         <v>4</v>
       </c>
       <c r="AZ24" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4"/>
@@ -7012,10 +7012,10 @@
         <v>310</v>
       </c>
       <c r="BK24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL24" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL24" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM24" s="4"/>
       <c r="BN24" s="4"/>
@@ -7026,7 +7026,7 @@
       <c r="BQ24" s="4"/>
       <c r="BR24" s="4"/>
       <c r="BS24" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT24" s="3">
         <v>0</v>
@@ -7110,13 +7110,13 @@
         <v>4</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3">
         <v>6.21</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>316</v>
@@ -7128,7 +7128,7 @@
         <v>314</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X25" s="3" t="s">
         <v>35</v>
@@ -7150,7 +7150,7 @@
         <v>310</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF25" s="3" t="s">
         <v>323</v>
@@ -7186,14 +7186,14 @@
       </c>
       <c r="AV25" s="4"/>
       <c r="AW25" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX25" s="4"/>
       <c r="AY25" s="3">
         <v>4</v>
       </c>
       <c r="AZ25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA25" s="4"/>
       <c r="BB25" s="4"/>
@@ -7212,10 +7212,10 @@
         <v>310</v>
       </c>
       <c r="BK25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL25" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL25" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM25" s="4"/>
       <c r="BN25" s="4"/>
@@ -7226,7 +7226,7 @@
       <c r="BQ25" s="4"/>
       <c r="BR25" s="4"/>
       <c r="BS25" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT25" s="3">
         <v>0</v>
@@ -7310,13 +7310,13 @@
         <v>4</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>6.21</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>316</v>
@@ -7328,7 +7328,7 @@
         <v>314</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>35</v>
@@ -7350,7 +7350,7 @@
         <v>310</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF26" s="3" t="s">
         <v>311</v>
@@ -7386,14 +7386,14 @@
       </c>
       <c r="AV26" s="4"/>
       <c r="AW26" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" s="4"/>
       <c r="AY26" s="3">
         <v>4</v>
       </c>
       <c r="AZ26" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
@@ -7412,10 +7412,10 @@
         <v>310</v>
       </c>
       <c r="BK26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL26" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL26" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM26" s="4"/>
       <c r="BN26" s="4"/>
@@ -7426,7 +7426,7 @@
       <c r="BQ26" s="4"/>
       <c r="BR26" s="4"/>
       <c r="BS26" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT26" s="3">
         <v>0</v>
@@ -7510,13 +7510,13 @@
         <v>1</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>5.01</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>302</v>
@@ -7524,7 +7524,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>35</v>
@@ -7546,7 +7546,7 @@
         <v>299</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF27" s="3" t="s">
         <v>298</v>
@@ -7580,14 +7580,14 @@
       </c>
       <c r="AV27" s="4"/>
       <c r="AW27" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX27" s="4"/>
       <c r="AY27" s="3">
         <v>1</v>
       </c>
       <c r="AZ27" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA27" s="4"/>
       <c r="BB27" s="4"/>
@@ -7604,10 +7604,10 @@
       </c>
       <c r="BJ27" s="4"/>
       <c r="BK27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL27" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL27" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM27" s="4"/>
       <c r="BN27" s="4"/>
@@ -7618,7 +7618,7 @@
       <c r="BQ27" s="4"/>
       <c r="BR27" s="4"/>
       <c r="BS27" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT27" s="3">
         <v>0</v>
@@ -7683,7 +7683,7 @@
         <v>44450</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>48</v>
@@ -7702,23 +7702,23 @@
         <v>3</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R28" s="3">
         <v>3.23</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>276</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>35</v>
@@ -7740,16 +7740,16 @@
         <v>273</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF28" s="3" t="s">
         <v>289</v>
       </c>
       <c r="AG28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH28" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="AH28" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="3">
@@ -7774,14 +7774,14 @@
       </c>
       <c r="AV28" s="4"/>
       <c r="AW28" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX28" s="4"/>
       <c r="AY28" s="3">
         <v>3</v>
       </c>
       <c r="AZ28" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
@@ -7798,10 +7798,10 @@
       </c>
       <c r="BJ28" s="4"/>
       <c r="BK28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL28" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL28" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM28" s="4"/>
       <c r="BN28" s="4"/>
@@ -7812,7 +7812,7 @@
       <c r="BQ28" s="4"/>
       <c r="BR28" s="4"/>
       <c r="BS28" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT28" s="3">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>44450</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>48</v>
@@ -7894,23 +7894,23 @@
         <v>3</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>3.23</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>276</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>35</v>
@@ -7932,16 +7932,16 @@
         <v>273</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF29" s="3" t="s">
         <v>283</v>
       </c>
       <c r="AG29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH29" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="AH29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="3">
@@ -7966,14 +7966,14 @@
       </c>
       <c r="AV29" s="4"/>
       <c r="AW29" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX29" s="4"/>
       <c r="AY29" s="3">
         <v>3</v>
       </c>
       <c r="AZ29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
@@ -7990,10 +7990,10 @@
       </c>
       <c r="BJ29" s="4"/>
       <c r="BK29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL29" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM29" s="4"/>
       <c r="BN29" s="4"/>
@@ -8004,7 +8004,7 @@
       <c r="BQ29" s="4"/>
       <c r="BR29" s="4"/>
       <c r="BS29" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT29" s="3">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>44450</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>48</v>
@@ -8086,23 +8086,23 @@
         <v>3</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R30" s="3">
         <v>3.23</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>276</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X30" s="3" t="s">
         <v>35</v>
@@ -8124,16 +8124,16 @@
         <v>273</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF30" s="3" t="s">
         <v>272</v>
       </c>
       <c r="AG30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH30" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="AH30" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="3">
@@ -8158,14 +8158,14 @@
       </c>
       <c r="AV30" s="4"/>
       <c r="AW30" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX30" s="4"/>
       <c r="AY30" s="3">
         <v>3</v>
       </c>
       <c r="AZ30" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
@@ -8182,10 +8182,10 @@
       </c>
       <c r="BJ30" s="4"/>
       <c r="BK30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL30" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL30" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM30" s="4"/>
       <c r="BN30" s="4"/>
@@ -8196,7 +8196,7 @@
       <c r="BQ30" s="4"/>
       <c r="BR30" s="4"/>
       <c r="BS30" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT30" s="3">
         <v>0</v>
@@ -8278,25 +8278,25 @@
         <v>40</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R31" s="3">
         <v>9.0399999999999991</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z31" s="3">
         <v>10</v>
@@ -8312,7 +8312,7 @@
         <v>257</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF31" s="3" t="s">
         <v>266</v>
@@ -8321,7 +8321,7 @@
         <v>188</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="3">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="AK31" s="4"/>
       <c r="AL31" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM31" s="3">
         <v>361.6</v>
@@ -8344,18 +8344,18 @@
         <v>187</v>
       </c>
       <c r="AU31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV31" s="4"/>
       <c r="AW31" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" s="4"/>
       <c r="AY31" s="3">
         <v>40</v>
       </c>
       <c r="AZ31" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
@@ -8372,10 +8372,10 @@
       </c>
       <c r="BJ31" s="4"/>
       <c r="BK31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL31" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL31" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM31" s="4"/>
       <c r="BN31" s="4"/>
@@ -8386,7 +8386,7 @@
       <c r="BQ31" s="4"/>
       <c r="BR31" s="4"/>
       <c r="BS31" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT31" s="3">
         <v>0</v>
@@ -8468,25 +8468,25 @@
         <v>62</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>7.39</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z32" s="3">
         <v>10</v>
@@ -8502,7 +8502,7 @@
         <v>257</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF32" s="3" t="s">
         <v>262</v>
@@ -8511,7 +8511,7 @@
         <v>188</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="3">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="AK32" s="4"/>
       <c r="AL32" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM32" s="3">
         <v>458.18</v>
@@ -8534,18 +8534,18 @@
         <v>187</v>
       </c>
       <c r="AU32" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV32" s="4"/>
       <c r="AW32" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX32" s="4"/>
       <c r="AY32" s="3">
         <v>62</v>
       </c>
       <c r="AZ32" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
@@ -8562,10 +8562,10 @@
       </c>
       <c r="BJ32" s="4"/>
       <c r="BK32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL32" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL32" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM32" s="4"/>
       <c r="BN32" s="4"/>
@@ -8576,7 +8576,7 @@
       <c r="BQ32" s="4"/>
       <c r="BR32" s="4"/>
       <c r="BS32" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT32" s="3">
         <v>0</v>
@@ -8658,19 +8658,19 @@
         <v>44</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>9.1300000000000008</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>35</v>
@@ -8692,7 +8692,7 @@
         <v>257</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF33" s="3" t="s">
         <v>260</v>
@@ -8701,7 +8701,7 @@
         <v>188</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="3">
@@ -8728,14 +8728,14 @@
       </c>
       <c r="AV33" s="4"/>
       <c r="AW33" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX33" s="4"/>
       <c r="AY33" s="3">
         <v>44</v>
       </c>
       <c r="AZ33" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA33" s="4"/>
       <c r="BB33" s="4"/>
@@ -8752,10 +8752,10 @@
       </c>
       <c r="BJ33" s="4"/>
       <c r="BK33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL33" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL33" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM33" s="4"/>
       <c r="BN33" s="4"/>
@@ -8766,7 +8766,7 @@
       <c r="BQ33" s="4"/>
       <c r="BR33" s="4"/>
       <c r="BS33" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT33" s="3">
         <v>0</v>
@@ -8848,19 +8848,19 @@
         <v>69</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R34" s="3">
         <v>9.1300000000000008</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X34" s="3" t="s">
         <v>35</v>
@@ -8882,7 +8882,7 @@
         <v>257</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF34" s="3" t="s">
         <v>256</v>
@@ -8891,7 +8891,7 @@
         <v>188</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="3">
@@ -8918,14 +8918,14 @@
       </c>
       <c r="AV34" s="4"/>
       <c r="AW34" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX34" s="4"/>
       <c r="AY34" s="3">
         <v>69</v>
       </c>
       <c r="AZ34" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
@@ -8942,10 +8942,10 @@
       </c>
       <c r="BJ34" s="4"/>
       <c r="BK34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL34" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL34" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM34" s="4"/>
       <c r="BN34" s="4"/>
@@ -8956,7 +8956,7 @@
       <c r="BQ34" s="4"/>
       <c r="BR34" s="4"/>
       <c r="BS34" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT34" s="3">
         <v>0</v>
@@ -9038,23 +9038,23 @@
         <v>2</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>4.7</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>246</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>35</v>
@@ -9076,7 +9076,7 @@
         <v>230</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF35" s="3" t="s">
         <v>253</v>
@@ -9112,14 +9112,14 @@
       </c>
       <c r="AV35" s="4"/>
       <c r="AW35" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX35" s="4"/>
       <c r="AY35" s="3">
         <v>2</v>
       </c>
       <c r="AZ35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA35" s="4"/>
       <c r="BB35" s="4"/>
@@ -9136,10 +9136,10 @@
       </c>
       <c r="BJ35" s="4"/>
       <c r="BK35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL35" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL35" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM35" s="4"/>
       <c r="BN35" s="4"/>
@@ -9150,7 +9150,7 @@
       <c r="BQ35" s="4"/>
       <c r="BR35" s="4"/>
       <c r="BS35" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT35" s="3">
         <v>0</v>
@@ -9232,23 +9232,23 @@
         <v>96</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R36" s="3">
         <v>4.7</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>246</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X36" s="3" t="s">
         <v>35</v>
@@ -9270,7 +9270,7 @@
         <v>230</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF36" s="3" t="s">
         <v>250</v>
@@ -9306,14 +9306,14 @@
       </c>
       <c r="AV36" s="4"/>
       <c r="AW36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX36" s="4"/>
       <c r="AY36" s="3">
         <v>96</v>
       </c>
       <c r="AZ36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
@@ -9330,10 +9330,10 @@
       </c>
       <c r="BJ36" s="4"/>
       <c r="BK36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL36" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL36" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM36" s="4"/>
       <c r="BN36" s="4"/>
@@ -9344,7 +9344,7 @@
       <c r="BQ36" s="4"/>
       <c r="BR36" s="4"/>
       <c r="BS36" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT36" s="3">
         <v>0</v>
@@ -9426,23 +9426,23 @@
         <v>85</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R37" s="3">
         <v>8.5500000000000007</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>246</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X37" s="3" t="s">
         <v>35</v>
@@ -9464,7 +9464,7 @@
         <v>230</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF37" s="3" t="s">
         <v>244</v>
@@ -9500,14 +9500,14 @@
       </c>
       <c r="AV37" s="4"/>
       <c r="AW37" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX37" s="4"/>
       <c r="AY37" s="3">
         <v>85</v>
       </c>
       <c r="AZ37" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
@@ -9524,10 +9524,10 @@
       </c>
       <c r="BJ37" s="4"/>
       <c r="BK37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL37" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL37" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM37" s="4"/>
       <c r="BN37" s="4"/>
@@ -9538,7 +9538,7 @@
       <c r="BQ37" s="4"/>
       <c r="BR37" s="4"/>
       <c r="BS37" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT37" s="3">
         <v>0</v>
@@ -9620,23 +9620,23 @@
         <v>33</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R38" s="3">
         <v>5.39</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>232</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X38" s="3" t="s">
         <v>35</v>
@@ -9658,7 +9658,7 @@
         <v>230</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF38" s="3" t="s">
         <v>239</v>
@@ -9694,14 +9694,14 @@
       </c>
       <c r="AV38" s="4"/>
       <c r="AW38" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX38" s="4"/>
       <c r="AY38" s="3">
         <v>33</v>
       </c>
       <c r="AZ38" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
@@ -9718,10 +9718,10 @@
       </c>
       <c r="BJ38" s="4"/>
       <c r="BK38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL38" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL38" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM38" s="4"/>
       <c r="BN38" s="4"/>
@@ -9732,7 +9732,7 @@
       <c r="BQ38" s="4"/>
       <c r="BR38" s="4"/>
       <c r="BS38" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT38" s="3">
         <v>0</v>
@@ -9814,23 +9814,23 @@
         <v>156</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R39" s="3">
         <v>9.25</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>232</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W39" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X39" s="3" t="s">
         <v>35</v>
@@ -9852,7 +9852,7 @@
         <v>230</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF39" s="3" t="s">
         <v>229</v>
@@ -9888,14 +9888,14 @@
       </c>
       <c r="AV39" s="4"/>
       <c r="AW39" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX39" s="4"/>
       <c r="AY39" s="3">
         <v>156</v>
       </c>
       <c r="AZ39" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
@@ -9912,10 +9912,10 @@
       </c>
       <c r="BJ39" s="4"/>
       <c r="BK39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL39" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL39" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM39" s="4"/>
       <c r="BN39" s="4"/>
@@ -9926,7 +9926,7 @@
       <c r="BQ39" s="4"/>
       <c r="BR39" s="4"/>
       <c r="BS39" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT39" s="3">
         <v>0</v>
@@ -10008,13 +10008,13 @@
         <v>5</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R40" s="3">
         <v>13.36</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>220</v>
@@ -10026,7 +10026,7 @@
         <v>218</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X40" s="3" t="s">
         <v>35</v>
@@ -10048,7 +10048,7 @@
         <v>215</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF40" s="3" t="s">
         <v>214</v>
@@ -10084,14 +10084,14 @@
       </c>
       <c r="AV40" s="4"/>
       <c r="AW40" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX40" s="4"/>
       <c r="AY40" s="3">
         <v>5</v>
       </c>
       <c r="AZ40" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA40" s="4"/>
       <c r="BB40" s="4"/>
@@ -10108,10 +10108,10 @@
       </c>
       <c r="BJ40" s="4"/>
       <c r="BK40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL40" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL40" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM40" s="4"/>
       <c r="BN40" s="4"/>
@@ -10122,7 +10122,7 @@
       <c r="BQ40" s="4"/>
       <c r="BR40" s="4"/>
       <c r="BS40" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT40" s="3">
         <v>0</v>
@@ -10204,25 +10204,25 @@
         <v>120</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>7.39</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z41" s="3">
         <v>10</v>
@@ -10238,7 +10238,7 @@
         <v>190</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF41" s="3" t="s">
         <v>205</v>
@@ -10247,7 +10247,7 @@
         <v>188</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="3">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="AK41" s="4"/>
       <c r="AL41" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM41" s="3">
         <v>886.8</v>
@@ -10270,18 +10270,18 @@
         <v>187</v>
       </c>
       <c r="AU41" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV41" s="4"/>
       <c r="AW41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX41" s="4"/>
       <c r="AY41" s="3">
         <v>120</v>
       </c>
       <c r="AZ41" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
@@ -10298,10 +10298,10 @@
       </c>
       <c r="BJ41" s="4"/>
       <c r="BK41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL41" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL41" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
@@ -10312,7 +10312,7 @@
       <c r="BQ41" s="4"/>
       <c r="BR41" s="4"/>
       <c r="BS41" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT41" s="3">
         <v>0</v>
@@ -10394,19 +10394,19 @@
         <v>72</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
         <v>9.1300000000000008</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>35</v>
@@ -10428,7 +10428,7 @@
         <v>190</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF42" s="3" t="s">
         <v>201</v>
@@ -10437,7 +10437,7 @@
         <v>188</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="3">
@@ -10464,14 +10464,14 @@
       </c>
       <c r="AV42" s="4"/>
       <c r="AW42" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX42" s="4"/>
       <c r="AY42" s="3">
         <v>72</v>
       </c>
       <c r="AZ42" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA42" s="4"/>
       <c r="BB42" s="4"/>
@@ -10488,10 +10488,10 @@
       </c>
       <c r="BJ42" s="4"/>
       <c r="BK42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL42" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL42" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM42" s="4"/>
       <c r="BN42" s="4"/>
@@ -10502,7 +10502,7 @@
       <c r="BQ42" s="4"/>
       <c r="BR42" s="4"/>
       <c r="BS42" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT42" s="3">
         <v>0</v>
@@ -10584,19 +10584,19 @@
         <v>89</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>9.1300000000000008</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>35</v>
@@ -10618,7 +10618,7 @@
         <v>190</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF43" s="3" t="s">
         <v>189</v>
@@ -10627,7 +10627,7 @@
         <v>188</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="3">
@@ -10654,14 +10654,14 @@
       </c>
       <c r="AV43" s="4"/>
       <c r="AW43" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX43" s="4"/>
       <c r="AY43" s="3">
         <v>89</v>
       </c>
       <c r="AZ43" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA43" s="4"/>
       <c r="BB43" s="4"/>
@@ -10678,10 +10678,10 @@
       </c>
       <c r="BJ43" s="4"/>
       <c r="BK43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL43" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL43" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM43" s="4"/>
       <c r="BN43" s="4"/>
@@ -10692,7 +10692,7 @@
       <c r="BQ43" s="4"/>
       <c r="BR43" s="4"/>
       <c r="BS43" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT43" s="3">
         <v>0</v>
@@ -10774,13 +10774,13 @@
         <v>1</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>14.12</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>178</v>
@@ -10790,13 +10790,13 @@
         <v>99</v>
       </c>
       <c r="W44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y44" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z44" s="3">
         <v>10</v>
@@ -10812,7 +10812,7 @@
         <v>175</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF44" s="3" t="s">
         <v>174</v>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="AK44" s="4"/>
       <c r="AL44" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM44" s="3">
         <v>14.12</v>
@@ -10844,18 +10844,18 @@
         <v>172</v>
       </c>
       <c r="AU44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV44" s="4"/>
       <c r="AW44" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX44" s="4"/>
       <c r="AY44" s="3">
         <v>1</v>
       </c>
       <c r="AZ44" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA44" s="4"/>
       <c r="BB44" s="4"/>
@@ -10872,10 +10872,10 @@
       </c>
       <c r="BJ44" s="4"/>
       <c r="BK44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL44" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL44" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM44" s="4"/>
       <c r="BN44" s="4"/>
@@ -10886,7 +10886,7 @@
       <c r="BQ44" s="4"/>
       <c r="BR44" s="4"/>
       <c r="BS44" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT44" s="3">
         <v>0</v>
@@ -10970,13 +10970,13 @@
         <v>1</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>5.89</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>164</v>
@@ -10988,13 +10988,13 @@
         <v>99</v>
       </c>
       <c r="W45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y45" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z45" s="3">
         <v>10</v>
@@ -11010,7 +11010,7 @@
         <v>144</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF45" s="3" t="s">
         <v>165</v>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="AK45" s="4"/>
       <c r="AL45" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM45" s="3">
         <v>5.89</v>
@@ -11042,18 +11042,18 @@
         <v>142</v>
       </c>
       <c r="AU45" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV45" s="4"/>
       <c r="AW45" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX45" s="4"/>
       <c r="AY45" s="3">
         <v>1</v>
       </c>
       <c r="AZ45" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA45" s="4"/>
       <c r="BB45" s="4"/>
@@ -11070,10 +11070,10 @@
       </c>
       <c r="BJ45" s="4"/>
       <c r="BK45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL45" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL45" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM45" s="4"/>
       <c r="BN45" s="4"/>
@@ -11084,7 +11084,7 @@
       <c r="BQ45" s="4"/>
       <c r="BR45" s="4"/>
       <c r="BS45" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT45" s="3">
         <v>0</v>
@@ -11168,13 +11168,13 @@
         <v>2</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>9.11</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>157</v>
@@ -11186,7 +11186,7 @@
         <v>99</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>35</v>
@@ -11208,7 +11208,7 @@
         <v>144</v>
       </c>
       <c r="AE46" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF46" s="3" t="s">
         <v>158</v>
@@ -11244,14 +11244,14 @@
       </c>
       <c r="AV46" s="4"/>
       <c r="AW46" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX46" s="4"/>
       <c r="AY46" s="3">
         <v>2</v>
       </c>
       <c r="AZ46" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA46" s="4"/>
       <c r="BB46" s="4"/>
@@ -11268,10 +11268,10 @@
       </c>
       <c r="BJ46" s="4"/>
       <c r="BK46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL46" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL46" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM46" s="4"/>
       <c r="BN46" s="4"/>
@@ -11282,7 +11282,7 @@
       <c r="BQ46" s="4"/>
       <c r="BR46" s="4"/>
       <c r="BS46" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT46" s="3">
         <v>0</v>
@@ -11366,13 +11366,13 @@
         <v>1</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>7.87</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>140</v>
@@ -11384,7 +11384,7 @@
         <v>99</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>35</v>
@@ -11406,7 +11406,7 @@
         <v>144</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF47" s="3" t="s">
         <v>143</v>
@@ -11442,14 +11442,14 @@
       </c>
       <c r="AV47" s="4"/>
       <c r="AW47" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX47" s="4"/>
       <c r="AY47" s="3">
         <v>1</v>
       </c>
       <c r="AZ47" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA47" s="4"/>
       <c r="BB47" s="4"/>
@@ -11466,10 +11466,10 @@
       </c>
       <c r="BJ47" s="4"/>
       <c r="BK47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL47" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL47" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM47" s="4"/>
       <c r="BN47" s="4"/>
@@ -11480,7 +11480,7 @@
       <c r="BQ47" s="4"/>
       <c r="BR47" s="4"/>
       <c r="BS47" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT47" s="3">
         <v>0</v>
@@ -11564,29 +11564,29 @@
         <v>2</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>9.24</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T48" s="4"/>
       <c r="U48" s="3" t="s">
         <v>135</v>
       </c>
       <c r="V48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="X48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z48" s="3">
         <v>10</v>
@@ -11602,7 +11602,7 @@
         <v>133</v>
       </c>
       <c r="AE48" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF48" s="3" t="s">
         <v>132</v>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="AK48" s="4"/>
       <c r="AL48" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM48" s="3">
         <v>18.48</v>
@@ -11634,18 +11634,18 @@
         <v>109</v>
       </c>
       <c r="AU48" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV48" s="4"/>
       <c r="AW48" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX48" s="4"/>
       <c r="AY48" s="3">
         <v>2</v>
       </c>
       <c r="AZ48" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA48" s="4"/>
       <c r="BB48" s="4"/>
@@ -11662,10 +11662,10 @@
       </c>
       <c r="BJ48" s="4"/>
       <c r="BK48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL48" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL48" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM48" s="4"/>
       <c r="BN48" s="4"/>
@@ -11676,7 +11676,7 @@
       <c r="BQ48" s="4"/>
       <c r="BR48" s="4"/>
       <c r="BS48" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT48" s="3">
         <v>0</v>
@@ -11695,7 +11695,7 @@
         <v>130</v>
       </c>
       <c r="BZ48" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA48" s="3">
         <v>38</v>
@@ -11758,29 +11758,29 @@
         <v>2</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>8.4</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T49" s="4"/>
       <c r="U49" s="3" t="s">
         <v>128</v>
       </c>
       <c r="V49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="X49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z49" s="3">
         <v>10</v>
@@ -11796,7 +11796,7 @@
         <v>113</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF49" s="3" t="s">
         <v>125</v>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="AK49" s="4"/>
       <c r="AL49" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM49" s="3">
         <v>16.8</v>
@@ -11828,18 +11828,18 @@
         <v>109</v>
       </c>
       <c r="AU49" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV49" s="4"/>
       <c r="AW49" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX49" s="4"/>
       <c r="AY49" s="3">
         <v>2</v>
       </c>
       <c r="AZ49" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA49" s="4"/>
       <c r="BB49" s="4"/>
@@ -11856,10 +11856,10 @@
       </c>
       <c r="BJ49" s="4"/>
       <c r="BK49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL49" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL49" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM49" s="4"/>
       <c r="BN49" s="4"/>
@@ -11870,7 +11870,7 @@
       <c r="BQ49" s="4"/>
       <c r="BR49" s="4"/>
       <c r="BS49" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT49" s="3">
         <v>0</v>
@@ -11952,29 +11952,29 @@
         <v>2</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R50" s="3">
         <v>8.4</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T50" s="4"/>
       <c r="U50" s="3" t="s">
         <v>116</v>
       </c>
       <c r="V50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="3" t="s">
+      <c r="X50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y50" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y50" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z50" s="3">
         <v>10</v>
@@ -11990,7 +11990,7 @@
         <v>113</v>
       </c>
       <c r="AE50" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF50" s="3" t="s">
         <v>112</v>
@@ -12007,7 +12007,7 @@
       </c>
       <c r="AK50" s="4"/>
       <c r="AL50" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM50" s="3">
         <v>16.8</v>
@@ -12022,18 +12022,18 @@
         <v>109</v>
       </c>
       <c r="AU50" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV50" s="4"/>
       <c r="AW50" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX50" s="4"/>
       <c r="AY50" s="3">
         <v>2</v>
       </c>
       <c r="AZ50" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA50" s="4"/>
       <c r="BB50" s="4"/>
@@ -12050,10 +12050,10 @@
       </c>
       <c r="BJ50" s="4"/>
       <c r="BK50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL50" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL50" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM50" s="4"/>
       <c r="BN50" s="4"/>
@@ -12064,7 +12064,7 @@
       <c r="BQ50" s="4"/>
       <c r="BR50" s="4"/>
       <c r="BS50" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT50" s="3">
         <v>0</v>
@@ -12146,13 +12146,13 @@
         <v>7</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R51" s="3">
         <v>11.63</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>91</v>
@@ -12162,13 +12162,13 @@
         <v>99</v>
       </c>
       <c r="W51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y51" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y51" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z51" s="3">
         <v>10</v>
@@ -12184,7 +12184,7 @@
         <v>4500089918</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF51" s="3" t="s">
         <v>96</v>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="AK51" s="4"/>
       <c r="AL51" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM51" s="3">
         <v>81.41</v>
@@ -12216,18 +12216,18 @@
         <v>93</v>
       </c>
       <c r="AU51" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV51" s="4"/>
       <c r="AW51" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX51" s="4"/>
       <c r="AY51" s="3">
         <v>7</v>
       </c>
       <c r="AZ51" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA51" s="4"/>
       <c r="BB51" s="4"/>
@@ -12244,10 +12244,10 @@
       </c>
       <c r="BJ51" s="4"/>
       <c r="BK51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL51" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL51" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM51" s="4"/>
       <c r="BN51" s="4"/>
@@ -12258,7 +12258,7 @@
       <c r="BQ51" s="4"/>
       <c r="BR51" s="4"/>
       <c r="BS51" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT51" s="3">
         <v>0</v>
@@ -12342,13 +12342,13 @@
         <v>2</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>7.2</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>82</v>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>35</v>
@@ -12380,7 +12380,7 @@
         <v>65</v>
       </c>
       <c r="AE52" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF52" s="3" t="s">
         <v>87</v>
@@ -12414,14 +12414,14 @@
       </c>
       <c r="AV52" s="4"/>
       <c r="AW52" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX52" s="4"/>
       <c r="AY52" s="3">
         <v>2</v>
       </c>
       <c r="AZ52" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA52" s="4"/>
       <c r="BB52" s="4"/>
@@ -12440,10 +12440,10 @@
         <v>82</v>
       </c>
       <c r="BK52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL52" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL52" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM52" s="4"/>
       <c r="BN52" s="4"/>
@@ -12454,7 +12454,7 @@
       <c r="BQ52" s="4"/>
       <c r="BR52" s="4"/>
       <c r="BS52" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT52" s="3">
         <v>0</v>
@@ -12538,13 +12538,13 @@
         <v>4</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R53" s="3">
         <v>7.2</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>82</v>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X53" s="3" t="s">
         <v>35</v>
@@ -12576,7 +12576,7 @@
         <v>65</v>
       </c>
       <c r="AE53" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF53" s="3" t="s">
         <v>83</v>
@@ -12610,14 +12610,14 @@
       </c>
       <c r="AV53" s="4"/>
       <c r="AW53" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX53" s="4"/>
       <c r="AY53" s="3">
         <v>4</v>
       </c>
       <c r="AZ53" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA53" s="4"/>
       <c r="BB53" s="4"/>
@@ -12636,10 +12636,10 @@
         <v>82</v>
       </c>
       <c r="BK53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL53" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL53" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM53" s="4"/>
       <c r="BN53" s="4"/>
@@ -12650,7 +12650,7 @@
       <c r="BQ53" s="4"/>
       <c r="BR53" s="4"/>
       <c r="BS53" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT53" s="3">
         <v>0</v>
@@ -12734,13 +12734,13 @@
         <v>1</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>9.91</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>62</v>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="V54" s="4"/>
       <c r="W54" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>35</v>
@@ -12772,7 +12772,7 @@
         <v>65</v>
       </c>
       <c r="AE54" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF54" s="3" t="s">
         <v>77</v>
@@ -12806,14 +12806,14 @@
       </c>
       <c r="AV54" s="4"/>
       <c r="AW54" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX54" s="4"/>
       <c r="AY54" s="3">
         <v>1</v>
       </c>
       <c r="AZ54" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA54" s="4"/>
       <c r="BB54" s="4"/>
@@ -12832,10 +12832,10 @@
         <v>62</v>
       </c>
       <c r="BK54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL54" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL54" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM54" s="4"/>
       <c r="BN54" s="4"/>
@@ -12846,7 +12846,7 @@
       <c r="BQ54" s="4"/>
       <c r="BR54" s="4"/>
       <c r="BS54" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT54" s="3">
         <v>0</v>
@@ -12930,13 +12930,13 @@
         <v>3</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R55" s="3">
         <v>9.91</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>62</v>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X55" s="3" t="s">
         <v>35</v>
@@ -12968,7 +12968,7 @@
         <v>65</v>
       </c>
       <c r="AE55" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF55" s="3" t="s">
         <v>64</v>
@@ -13002,14 +13002,14 @@
       </c>
       <c r="AV55" s="4"/>
       <c r="AW55" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX55" s="4"/>
       <c r="AY55" s="3">
         <v>3</v>
       </c>
       <c r="AZ55" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA55" s="4"/>
       <c r="BB55" s="4"/>
@@ -13028,10 +13028,10 @@
         <v>62</v>
       </c>
       <c r="BK55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL55" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL55" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM55" s="4"/>
       <c r="BN55" s="4"/>
@@ -13042,7 +13042,7 @@
       <c r="BQ55" s="4"/>
       <c r="BR55" s="4"/>
       <c r="BS55" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT55" s="3">
         <v>0</v>
@@ -13126,13 +13126,13 @@
         <v>5</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R56" s="3">
         <v>5.62</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>44</v>
@@ -13144,7 +13144,7 @@
         <v>42</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X56" s="3" t="s">
         <v>35</v>
@@ -13166,7 +13166,7 @@
         <v>38</v>
       </c>
       <c r="AE56" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF56" s="3" t="s">
         <v>54</v>
@@ -13175,7 +13175,7 @@
         <v>36</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="3">
@@ -13202,14 +13202,14 @@
       </c>
       <c r="AV56" s="4"/>
       <c r="AW56" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX56" s="4"/>
       <c r="AY56" s="3">
         <v>5</v>
       </c>
       <c r="AZ56" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA56" s="4"/>
       <c r="BB56" s="4"/>
@@ -13226,10 +13226,10 @@
       </c>
       <c r="BJ56" s="4"/>
       <c r="BK56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL56" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL56" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM56" s="4"/>
       <c r="BN56" s="4"/>
@@ -13240,7 +13240,7 @@
       <c r="BQ56" s="4"/>
       <c r="BR56" s="4"/>
       <c r="BS56" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT56" s="3">
         <v>0</v>
@@ -13322,13 +13322,13 @@
         <v>5</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>5.62</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>44</v>
@@ -13340,7 +13340,7 @@
         <v>42</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>35</v>
@@ -13362,7 +13362,7 @@
         <v>38</v>
       </c>
       <c r="AE57" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF57" s="3" t="s">
         <v>37</v>
@@ -13371,7 +13371,7 @@
         <v>36</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="3">
@@ -13398,14 +13398,14 @@
       </c>
       <c r="AV57" s="4"/>
       <c r="AW57" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX57" s="4"/>
       <c r="AY57" s="3">
         <v>5</v>
       </c>
       <c r="AZ57" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA57" s="4"/>
       <c r="BB57" s="4"/>
@@ -13422,10 +13422,10 @@
       </c>
       <c r="BJ57" s="4"/>
       <c r="BK57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL57" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL57" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM57" s="4"/>
       <c r="BN57" s="4"/>
@@ -13436,7 +13436,7 @@
       <c r="BQ57" s="4"/>
       <c r="BR57" s="4"/>
       <c r="BS57" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT57" s="3">
         <v>0</v>
@@ -13481,7 +13481,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>28</v>
@@ -13499,7 +13499,7 @@
         <v>44429</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>26</v>
@@ -13518,54 +13518,54 @@
         <v>1</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>9.8800000000000008</v>
       </c>
       <c r="S58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z58" s="3">
         <v>10</v>
       </c>
       <c r="AA58" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB58" s="4"/>
       <c r="AC58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AD58" s="3" t="s">
+      <c r="AE58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE58" s="3" t="s">
+      <c r="AF58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AF58" s="3" t="s">
+      <c r="AG58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AG58" s="3" t="s">
+      <c r="AH58" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="AH58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="3">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="AK58" s="4"/>
       <c r="AL58" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM58" s="3">
         <v>9.8800000000000008</v>
@@ -13586,18 +13586,18 @@
       <c r="AS58" s="4"/>
       <c r="AT58" s="4"/>
       <c r="AU58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV58" s="4"/>
       <c r="AW58" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX58" s="4"/>
       <c r="AY58" s="3">
         <v>1</v>
       </c>
       <c r="AZ58" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA58" s="4"/>
       <c r="BB58" s="4"/>
@@ -13614,10 +13614,10 @@
       </c>
       <c r="BJ58" s="4"/>
       <c r="BK58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL58" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="BL58" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="BM58" s="4"/>
       <c r="BN58" s="4"/>
@@ -13628,13 +13628,13 @@
       <c r="BQ58" s="4"/>
       <c r="BR58" s="4"/>
       <c r="BS58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT58" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU58" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="BT58" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU58" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="BV58" s="3">
         <v>9.8800000000000008</v>
@@ -13644,10 +13644,10 @@
       </c>
       <c r="BX58" s="4"/>
       <c r="BY58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ58" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="BZ58" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="CA58" s="3">
         <v>50</v>
